--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_queries_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\01. HUB\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C89A380C-E0FD-4D8A-BA35-18FCEE7100C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C142BB9B-2D3D-4EA2-A0F4-0DE58A0B8A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -437,6 +437,45 @@
   </si>
   <si>
     <t>Aisén del General Carlos Ibáñez del Campo, Chile</t>
+  </si>
+  <si>
+    <t>2024-10-07 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-14 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-21 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-28 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-04 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-11 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-18 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-25 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-02 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-09 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-16 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-23 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-30 03:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -778,13 +817,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC26"/>
+  <dimension ref="A1:DP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CV3" workbookViewId="0">
+      <selection activeCell="DA12" sqref="DA12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -800,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -808,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -816,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -824,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -832,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -840,7 +881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -848,7 +889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -856,7 +897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1178,8 +1219,47 @@
       <c r="DC11" t="s">
         <v>123</v>
       </c>
+      <c r="DD11" t="s">
+        <v>139</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>141</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>142</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>143</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>145</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>147</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>148</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>149</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1499,10 +1579,49 @@
         <v>24779</v>
       </c>
       <c r="DC12">
-        <v>4523</v>
+        <v>19061</v>
+      </c>
+      <c r="DD12">
+        <v>28085</v>
+      </c>
+      <c r="DE12">
+        <v>19394</v>
+      </c>
+      <c r="DF12">
+        <v>30198</v>
+      </c>
+      <c r="DG12">
+        <v>45366</v>
+      </c>
+      <c r="DH12">
+        <v>34600</v>
+      </c>
+      <c r="DI12">
+        <v>38311</v>
+      </c>
+      <c r="DJ12">
+        <v>31817</v>
+      </c>
+      <c r="DK12">
+        <v>36561</v>
+      </c>
+      <c r="DL12">
+        <v>78752</v>
+      </c>
+      <c r="DM12">
+        <v>55681</v>
+      </c>
+      <c r="DN12">
+        <v>64986</v>
+      </c>
+      <c r="DO12">
+        <v>36157</v>
+      </c>
+      <c r="DP12">
+        <v>16354</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -1822,10 +1941,49 @@
         <v>2214</v>
       </c>
       <c r="DC13">
-        <v>354</v>
+        <v>1831</v>
+      </c>
+      <c r="DD13">
+        <v>2861</v>
+      </c>
+      <c r="DE13">
+        <v>1727</v>
+      </c>
+      <c r="DF13">
+        <v>2847</v>
+      </c>
+      <c r="DG13">
+        <v>4430</v>
+      </c>
+      <c r="DH13">
+        <v>3362</v>
+      </c>
+      <c r="DI13">
+        <v>3870</v>
+      </c>
+      <c r="DJ13">
+        <v>3113</v>
+      </c>
+      <c r="DK13">
+        <v>3434</v>
+      </c>
+      <c r="DL13">
+        <v>7489</v>
+      </c>
+      <c r="DM13">
+        <v>5771</v>
+      </c>
+      <c r="DN13">
+        <v>6689</v>
+      </c>
+      <c r="DO13">
+        <v>3544</v>
+      </c>
+      <c r="DP13">
+        <v>1649</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2145,10 +2303,49 @@
         <v>1296</v>
       </c>
       <c r="DC14">
-        <v>211</v>
+        <v>1108</v>
+      </c>
+      <c r="DD14">
+        <v>1612</v>
+      </c>
+      <c r="DE14">
+        <v>1019</v>
+      </c>
+      <c r="DF14">
+        <v>1575</v>
+      </c>
+      <c r="DG14">
+        <v>2563</v>
+      </c>
+      <c r="DH14">
+        <v>2128</v>
+      </c>
+      <c r="DI14">
+        <v>2271</v>
+      </c>
+      <c r="DJ14">
+        <v>1907</v>
+      </c>
+      <c r="DK14">
+        <v>1966</v>
+      </c>
+      <c r="DL14">
+        <v>4348</v>
+      </c>
+      <c r="DM14">
+        <v>3204</v>
+      </c>
+      <c r="DN14">
+        <v>3875</v>
+      </c>
+      <c r="DO14">
+        <v>2004</v>
+      </c>
+      <c r="DP14">
+        <v>863</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2468,10 +2665,49 @@
         <v>448</v>
       </c>
       <c r="DC15">
-        <v>97</v>
+        <v>583</v>
+      </c>
+      <c r="DD15">
+        <v>816</v>
+      </c>
+      <c r="DE15">
+        <v>532</v>
+      </c>
+      <c r="DF15">
+        <v>784</v>
+      </c>
+      <c r="DG15">
+        <v>1208</v>
+      </c>
+      <c r="DH15">
+        <v>1003</v>
+      </c>
+      <c r="DI15">
+        <v>1138</v>
+      </c>
+      <c r="DJ15">
+        <v>881</v>
+      </c>
+      <c r="DK15">
+        <v>1054</v>
+      </c>
+      <c r="DL15">
+        <v>2052</v>
+      </c>
+      <c r="DM15">
+        <v>1661</v>
+      </c>
+      <c r="DN15">
+        <v>1963</v>
+      </c>
+      <c r="DO15">
+        <v>1103</v>
+      </c>
+      <c r="DP15">
+        <v>468</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -2791,10 +3027,49 @@
         <v>662</v>
       </c>
       <c r="DC16">
-        <v>136</v>
+        <v>518</v>
+      </c>
+      <c r="DD16">
+        <v>776</v>
+      </c>
+      <c r="DE16">
+        <v>476</v>
+      </c>
+      <c r="DF16">
+        <v>729</v>
+      </c>
+      <c r="DG16">
+        <v>1220</v>
+      </c>
+      <c r="DH16">
+        <v>846</v>
+      </c>
+      <c r="DI16">
+        <v>942</v>
+      </c>
+      <c r="DJ16">
+        <v>719</v>
+      </c>
+      <c r="DK16">
+        <v>809</v>
+      </c>
+      <c r="DL16">
+        <v>1740</v>
+      </c>
+      <c r="DM16">
+        <v>1403</v>
+      </c>
+      <c r="DN16">
+        <v>1586</v>
+      </c>
+      <c r="DO16">
+        <v>751</v>
+      </c>
+      <c r="DP16">
+        <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3114,10 +3389,49 @@
         <v>496</v>
       </c>
       <c r="DC17">
-        <v>138</v>
+        <v>505</v>
+      </c>
+      <c r="DD17">
+        <v>676</v>
+      </c>
+      <c r="DE17">
+        <v>419</v>
+      </c>
+      <c r="DF17">
+        <v>678</v>
+      </c>
+      <c r="DG17">
+        <v>790</v>
+      </c>
+      <c r="DH17">
+        <v>805</v>
+      </c>
+      <c r="DI17">
+        <v>933</v>
+      </c>
+      <c r="DJ17">
+        <v>761</v>
+      </c>
+      <c r="DK17">
+        <v>889</v>
+      </c>
+      <c r="DL17">
+        <v>1591</v>
+      </c>
+      <c r="DM17">
+        <v>1003</v>
+      </c>
+      <c r="DN17">
+        <v>1413</v>
+      </c>
+      <c r="DO17">
+        <v>751</v>
+      </c>
+      <c r="DP17">
+        <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -3437,10 +3751,49 @@
         <v>600</v>
       </c>
       <c r="DC18">
-        <v>72</v>
+        <v>500</v>
+      </c>
+      <c r="DD18">
+        <v>662</v>
+      </c>
+      <c r="DE18">
+        <v>482</v>
+      </c>
+      <c r="DF18">
+        <v>684</v>
+      </c>
+      <c r="DG18">
+        <v>1281</v>
+      </c>
+      <c r="DH18">
+        <v>891</v>
+      </c>
+      <c r="DI18">
+        <v>1055</v>
+      </c>
+      <c r="DJ18">
+        <v>798</v>
+      </c>
+      <c r="DK18">
+        <v>968</v>
+      </c>
+      <c r="DL18">
+        <v>2327</v>
+      </c>
+      <c r="DM18">
+        <v>1481</v>
+      </c>
+      <c r="DN18">
+        <v>1695</v>
+      </c>
+      <c r="DO18">
+        <v>857</v>
+      </c>
+      <c r="DP18">
+        <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -3760,10 +4113,49 @@
         <v>644</v>
       </c>
       <c r="DC19">
-        <v>114</v>
+        <v>402</v>
+      </c>
+      <c r="DD19">
+        <v>688</v>
+      </c>
+      <c r="DE19">
+        <v>383</v>
+      </c>
+      <c r="DF19">
+        <v>606</v>
+      </c>
+      <c r="DG19">
+        <v>894</v>
+      </c>
+      <c r="DH19">
+        <v>756</v>
+      </c>
+      <c r="DI19">
+        <v>932</v>
+      </c>
+      <c r="DJ19">
+        <v>695</v>
+      </c>
+      <c r="DK19">
+        <v>718</v>
+      </c>
+      <c r="DL19">
+        <v>1723</v>
+      </c>
+      <c r="DM19">
+        <v>1113</v>
+      </c>
+      <c r="DN19">
+        <v>1363</v>
+      </c>
+      <c r="DO19">
+        <v>866</v>
+      </c>
+      <c r="DP19">
+        <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4083,10 +4475,49 @@
         <v>363</v>
       </c>
       <c r="DC20">
-        <v>79</v>
+        <v>364</v>
+      </c>
+      <c r="DD20">
+        <v>590</v>
+      </c>
+      <c r="DE20">
+        <v>382</v>
+      </c>
+      <c r="DF20">
+        <v>604</v>
+      </c>
+      <c r="DG20">
+        <v>861</v>
+      </c>
+      <c r="DH20">
+        <v>619</v>
+      </c>
+      <c r="DI20">
+        <v>608</v>
+      </c>
+      <c r="DJ20">
+        <v>541</v>
+      </c>
+      <c r="DK20">
+        <v>622</v>
+      </c>
+      <c r="DL20">
+        <v>1092</v>
+      </c>
+      <c r="DM20">
+        <v>931</v>
+      </c>
+      <c r="DN20">
+        <v>1086</v>
+      </c>
+      <c r="DO20">
+        <v>614</v>
+      </c>
+      <c r="DP20">
+        <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -4406,10 +4837,49 @@
         <v>259</v>
       </c>
       <c r="DC21">
-        <v>47</v>
+        <v>225</v>
+      </c>
+      <c r="DD21">
+        <v>318</v>
+      </c>
+      <c r="DE21">
+        <v>202</v>
+      </c>
+      <c r="DF21">
+        <v>433</v>
+      </c>
+      <c r="DG21">
+        <v>745</v>
+      </c>
+      <c r="DH21">
+        <v>523</v>
+      </c>
+      <c r="DI21">
+        <v>488</v>
+      </c>
+      <c r="DJ21">
+        <v>399</v>
+      </c>
+      <c r="DK21">
+        <v>464</v>
+      </c>
+      <c r="DL21">
+        <v>835</v>
+      </c>
+      <c r="DM21">
+        <v>546</v>
+      </c>
+      <c r="DN21">
+        <v>526</v>
+      </c>
+      <c r="DO21">
+        <v>335</v>
+      </c>
+      <c r="DP21">
+        <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -4729,10 +5199,49 @@
         <v>304</v>
       </c>
       <c r="DC22">
-        <v>67</v>
+        <v>182</v>
+      </c>
+      <c r="DD22">
+        <v>292</v>
+      </c>
+      <c r="DE22">
+        <v>196</v>
+      </c>
+      <c r="DF22">
+        <v>278</v>
+      </c>
+      <c r="DG22">
+        <v>517</v>
+      </c>
+      <c r="DH22">
+        <v>418</v>
+      </c>
+      <c r="DI22">
+        <v>430</v>
+      </c>
+      <c r="DJ22">
+        <v>334</v>
+      </c>
+      <c r="DK22">
+        <v>375</v>
+      </c>
+      <c r="DL22">
+        <v>982</v>
+      </c>
+      <c r="DM22">
+        <v>696</v>
+      </c>
+      <c r="DN22">
+        <v>876</v>
+      </c>
+      <c r="DO22">
+        <v>435</v>
+      </c>
+      <c r="DP22">
+        <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -5052,10 +5561,49 @@
         <v>125</v>
       </c>
       <c r="DC23">
-        <v>33</v>
+        <v>154</v>
+      </c>
+      <c r="DD23">
+        <v>184</v>
+      </c>
+      <c r="DE23">
+        <v>139</v>
+      </c>
+      <c r="DF23">
+        <v>177</v>
+      </c>
+      <c r="DG23">
+        <v>237</v>
+      </c>
+      <c r="DH23">
+        <v>211</v>
+      </c>
+      <c r="DI23">
+        <v>247</v>
+      </c>
+      <c r="DJ23">
+        <v>235</v>
+      </c>
+      <c r="DK23">
+        <v>186</v>
+      </c>
+      <c r="DL23">
+        <v>294</v>
+      </c>
+      <c r="DM23">
+        <v>279</v>
+      </c>
+      <c r="DN23">
+        <v>300</v>
+      </c>
+      <c r="DO23">
+        <v>191</v>
+      </c>
+      <c r="DP23">
+        <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -5375,10 +5923,49 @@
         <v>141</v>
       </c>
       <c r="DC24">
-        <v>24</v>
+        <v>145</v>
+      </c>
+      <c r="DD24">
+        <v>236</v>
+      </c>
+      <c r="DE24">
+        <v>145</v>
+      </c>
+      <c r="DF24">
+        <v>174</v>
+      </c>
+      <c r="DG24">
+        <v>257</v>
+      </c>
+      <c r="DH24">
+        <v>246</v>
+      </c>
+      <c r="DI24">
+        <v>310</v>
+      </c>
+      <c r="DJ24">
+        <v>243</v>
+      </c>
+      <c r="DK24">
+        <v>284</v>
+      </c>
+      <c r="DL24">
+        <v>434</v>
+      </c>
+      <c r="DM24">
+        <v>461</v>
+      </c>
+      <c r="DN24">
+        <v>455</v>
+      </c>
+      <c r="DO24">
+        <v>284</v>
+      </c>
+      <c r="DP24">
+        <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -5698,10 +6285,49 @@
         <v>148</v>
       </c>
       <c r="DC25">
-        <v>25</v>
+        <v>108</v>
+      </c>
+      <c r="DD25">
+        <v>172</v>
+      </c>
+      <c r="DE25">
+        <v>113</v>
+      </c>
+      <c r="DF25">
+        <v>200</v>
+      </c>
+      <c r="DG25">
+        <v>295</v>
+      </c>
+      <c r="DH25">
+        <v>209</v>
+      </c>
+      <c r="DI25">
+        <v>241</v>
+      </c>
+      <c r="DJ25">
+        <v>205</v>
+      </c>
+      <c r="DK25">
+        <v>199</v>
+      </c>
+      <c r="DL25">
+        <v>367</v>
+      </c>
+      <c r="DM25">
+        <v>327</v>
+      </c>
+      <c r="DN25">
+        <v>335</v>
+      </c>
+      <c r="DO25">
+        <v>191</v>
+      </c>
+      <c r="DP25">
+        <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -6021,7 +6647,46 @@
         <v>35</v>
       </c>
       <c r="DC26">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="DD26">
+        <v>46</v>
+      </c>
+      <c r="DE26">
+        <v>14</v>
+      </c>
+      <c r="DF26">
+        <v>21</v>
+      </c>
+      <c r="DG26">
+        <v>26</v>
+      </c>
+      <c r="DH26">
+        <v>26</v>
+      </c>
+      <c r="DI26">
+        <v>37</v>
+      </c>
+      <c r="DJ26">
+        <v>43</v>
+      </c>
+      <c r="DK26">
+        <v>39</v>
+      </c>
+      <c r="DL26">
+        <v>45</v>
+      </c>
+      <c r="DM26">
+        <v>44</v>
+      </c>
+      <c r="DN26">
+        <v>42</v>
+      </c>
+      <c r="DO26">
+        <v>55</v>
+      </c>
+      <c r="DP26">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_queries_.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C142BB9B-2D3D-4EA2-A0F4-0DE58A0B8A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858FDAD-9A0E-415D-919E-CA2009298D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -476,6 +489,48 @@
   </si>
   <si>
     <t>2024-12-30 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-06 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-13 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-20 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-27 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-03 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-10 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-17 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-24 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-03 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-10 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-17 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-24 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-31 03:00:00.0</t>
+  </si>
+  <si>
+    <t>population</t>
   </si>
 </sst>
 </file>
@@ -817,15 +872,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DP26"/>
+  <dimension ref="A1:ED26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CV3" workbookViewId="0">
-      <selection activeCell="DA12" sqref="DA12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="EA17" sqref="EA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -841,7 +896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -849,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -857,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -865,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -873,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -881,7 +936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -889,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -897,7 +952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1313,50 @@
       <c r="DP11" t="s">
         <v>151</v>
       </c>
+      <c r="DQ11" t="s">
+        <v>152</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>154</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>155</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>159</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>161</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>164</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1620,8 +1717,47 @@
       <c r="DP12">
         <v>16354</v>
       </c>
+      <c r="DQ12">
+        <v>46518</v>
+      </c>
+      <c r="DR12">
+        <v>26012</v>
+      </c>
+      <c r="DS12">
+        <v>28134</v>
+      </c>
+      <c r="DT12">
+        <v>29947</v>
+      </c>
+      <c r="DU12">
+        <v>43393</v>
+      </c>
+      <c r="DV12">
+        <v>30692</v>
+      </c>
+      <c r="DW12">
+        <v>37158</v>
+      </c>
+      <c r="DX12">
+        <v>101966</v>
+      </c>
+      <c r="DY12">
+        <v>46976</v>
+      </c>
+      <c r="DZ12">
+        <v>24409</v>
+      </c>
+      <c r="EA12">
+        <v>45258</v>
+      </c>
+      <c r="EB12">
+        <v>27186</v>
+      </c>
+      <c r="EC12">
+        <v>3889</v>
+      </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -1982,8 +2118,47 @@
       <c r="DP13">
         <v>1649</v>
       </c>
+      <c r="DQ13">
+        <v>3892</v>
+      </c>
+      <c r="DR13">
+        <v>2299</v>
+      </c>
+      <c r="DS13">
+        <v>2662</v>
+      </c>
+      <c r="DT13">
+        <v>2779</v>
+      </c>
+      <c r="DU13">
+        <v>3999</v>
+      </c>
+      <c r="DV13">
+        <v>2701</v>
+      </c>
+      <c r="DW13">
+        <v>3461</v>
+      </c>
+      <c r="DX13">
+        <v>9753</v>
+      </c>
+      <c r="DY13">
+        <v>4434</v>
+      </c>
+      <c r="DZ13">
+        <v>2217</v>
+      </c>
+      <c r="EA13">
+        <v>4303</v>
+      </c>
+      <c r="EB13">
+        <v>2507</v>
+      </c>
+      <c r="EC13">
+        <v>337</v>
+      </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2344,8 +2519,47 @@
       <c r="DP14">
         <v>863</v>
       </c>
+      <c r="DQ14">
+        <v>2305</v>
+      </c>
+      <c r="DR14">
+        <v>1204</v>
+      </c>
+      <c r="DS14">
+        <v>1330</v>
+      </c>
+      <c r="DT14">
+        <v>1553</v>
+      </c>
+      <c r="DU14">
+        <v>2258</v>
+      </c>
+      <c r="DV14">
+        <v>1643</v>
+      </c>
+      <c r="DW14">
+        <v>1973</v>
+      </c>
+      <c r="DX14">
+        <v>5786</v>
+      </c>
+      <c r="DY14">
+        <v>2460</v>
+      </c>
+      <c r="DZ14">
+        <v>1280</v>
+      </c>
+      <c r="EA14">
+        <v>2385</v>
+      </c>
+      <c r="EB14">
+        <v>1398</v>
+      </c>
+      <c r="EC14">
+        <v>193</v>
+      </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2706,8 +2920,47 @@
       <c r="DP15">
         <v>468</v>
       </c>
+      <c r="DQ15">
+        <v>730</v>
+      </c>
+      <c r="DR15">
+        <v>485</v>
+      </c>
+      <c r="DS15">
+        <v>509</v>
+      </c>
+      <c r="DT15">
+        <v>575</v>
+      </c>
+      <c r="DU15">
+        <v>817</v>
+      </c>
+      <c r="DV15">
+        <v>598</v>
+      </c>
+      <c r="DW15">
+        <v>789</v>
+      </c>
+      <c r="DX15">
+        <v>1877</v>
+      </c>
+      <c r="DY15">
+        <v>865</v>
+      </c>
+      <c r="DZ15">
+        <v>464</v>
+      </c>
+      <c r="EA15">
+        <v>928</v>
+      </c>
+      <c r="EB15">
+        <v>449</v>
+      </c>
+      <c r="EC15">
+        <v>73</v>
+      </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:134" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3068,8 +3321,47 @@
       <c r="DP16">
         <v>358</v>
       </c>
+      <c r="DQ16">
+        <v>1207</v>
+      </c>
+      <c r="DR16">
+        <v>565</v>
+      </c>
+      <c r="DS16">
+        <v>590</v>
+      </c>
+      <c r="DT16">
+        <v>669</v>
+      </c>
+      <c r="DU16">
+        <v>1017</v>
+      </c>
+      <c r="DV16">
+        <v>667</v>
+      </c>
+      <c r="DW16">
+        <v>800</v>
+      </c>
+      <c r="DX16">
+        <v>2300</v>
+      </c>
+      <c r="DY16">
+        <v>976</v>
+      </c>
+      <c r="DZ16">
+        <v>540</v>
+      </c>
+      <c r="EA16">
+        <v>877</v>
+      </c>
+      <c r="EB16">
+        <v>642</v>
+      </c>
+      <c r="EC16">
+        <v>97</v>
+      </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3430,8 +3722,47 @@
       <c r="DP17">
         <v>297</v>
       </c>
+      <c r="DQ17">
+        <v>1139</v>
+      </c>
+      <c r="DR17">
+        <v>678</v>
+      </c>
+      <c r="DS17">
+        <v>670</v>
+      </c>
+      <c r="DT17">
+        <v>669</v>
+      </c>
+      <c r="DU17">
+        <v>1165</v>
+      </c>
+      <c r="DV17">
+        <v>756</v>
+      </c>
+      <c r="DW17">
+        <v>858</v>
+      </c>
+      <c r="DX17">
+        <v>2715</v>
+      </c>
+      <c r="DY17">
+        <v>1125</v>
+      </c>
+      <c r="DZ17">
+        <v>590</v>
+      </c>
+      <c r="EA17">
+        <v>1129</v>
+      </c>
+      <c r="EB17">
+        <v>629</v>
+      </c>
+      <c r="EC17">
+        <v>80</v>
+      </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -3792,8 +4123,47 @@
       <c r="DP18">
         <v>411</v>
       </c>
+      <c r="DQ18">
+        <v>824</v>
+      </c>
+      <c r="DR18">
+        <v>546</v>
+      </c>
+      <c r="DS18">
+        <v>508</v>
+      </c>
+      <c r="DT18">
+        <v>550</v>
+      </c>
+      <c r="DU18">
+        <v>807</v>
+      </c>
+      <c r="DV18">
+        <v>614</v>
+      </c>
+      <c r="DW18">
+        <v>730</v>
+      </c>
+      <c r="DX18">
+        <v>1880</v>
+      </c>
+      <c r="DY18">
+        <v>933</v>
+      </c>
+      <c r="DZ18">
+        <v>503</v>
+      </c>
+      <c r="EA18">
+        <v>938</v>
+      </c>
+      <c r="EB18">
+        <v>671</v>
+      </c>
+      <c r="EC18">
+        <v>89</v>
+      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -4154,8 +4524,47 @@
       <c r="DP19">
         <v>399</v>
       </c>
+      <c r="DQ19">
+        <v>1103</v>
+      </c>
+      <c r="DR19">
+        <v>857</v>
+      </c>
+      <c r="DS19">
+        <v>735</v>
+      </c>
+      <c r="DT19">
+        <v>844</v>
+      </c>
+      <c r="DU19">
+        <v>1107</v>
+      </c>
+      <c r="DV19">
+        <v>923</v>
+      </c>
+      <c r="DW19">
+        <v>1122</v>
+      </c>
+      <c r="DX19">
+        <v>2840</v>
+      </c>
+      <c r="DY19">
+        <v>1399</v>
+      </c>
+      <c r="DZ19">
+        <v>622</v>
+      </c>
+      <c r="EA19">
+        <v>1281</v>
+      </c>
+      <c r="EB19">
+        <v>768</v>
+      </c>
+      <c r="EC19">
+        <v>103</v>
+      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4516,8 +4925,47 @@
       <c r="DP20">
         <v>200</v>
       </c>
+      <c r="DQ20">
+        <v>678</v>
+      </c>
+      <c r="DR20">
+        <v>426</v>
+      </c>
+      <c r="DS20">
+        <v>476</v>
+      </c>
+      <c r="DT20">
+        <v>526</v>
+      </c>
+      <c r="DU20">
+        <v>796</v>
+      </c>
+      <c r="DV20">
+        <v>511</v>
+      </c>
+      <c r="DW20">
+        <v>624</v>
+      </c>
+      <c r="DX20">
+        <v>2216</v>
+      </c>
+      <c r="DY20">
+        <v>823</v>
+      </c>
+      <c r="DZ20">
+        <v>457</v>
+      </c>
+      <c r="EA20">
+        <v>837</v>
+      </c>
+      <c r="EB20">
+        <v>560</v>
+      </c>
+      <c r="EC20">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -4878,8 +5326,47 @@
       <c r="DP21">
         <v>150</v>
       </c>
+      <c r="DQ21">
+        <v>573</v>
+      </c>
+      <c r="DR21">
+        <v>233</v>
+      </c>
+      <c r="DS21">
+        <v>252</v>
+      </c>
+      <c r="DT21">
+        <v>263</v>
+      </c>
+      <c r="DU21">
+        <v>558</v>
+      </c>
+      <c r="DV21">
+        <v>311</v>
+      </c>
+      <c r="DW21">
+        <v>363</v>
+      </c>
+      <c r="DX21">
+        <v>1657</v>
+      </c>
+      <c r="DY21">
+        <v>511</v>
+      </c>
+      <c r="DZ21">
+        <v>232</v>
+      </c>
+      <c r="EA21">
+        <v>511</v>
+      </c>
+      <c r="EB21">
+        <v>289</v>
+      </c>
+      <c r="EC21">
+        <v>39</v>
+      </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -5240,8 +5727,47 @@
       <c r="DP22">
         <v>207</v>
       </c>
+      <c r="DQ22">
+        <v>427</v>
+      </c>
+      <c r="DR22">
+        <v>300</v>
+      </c>
+      <c r="DS22">
+        <v>282</v>
+      </c>
+      <c r="DT22">
+        <v>350</v>
+      </c>
+      <c r="DU22">
+        <v>529</v>
+      </c>
+      <c r="DV22">
+        <v>381</v>
+      </c>
+      <c r="DW22">
+        <v>458</v>
+      </c>
+      <c r="DX22">
+        <v>1178</v>
+      </c>
+      <c r="DY22">
+        <v>470</v>
+      </c>
+      <c r="DZ22">
+        <v>311</v>
+      </c>
+      <c r="EA22">
+        <v>624</v>
+      </c>
+      <c r="EB22">
+        <v>364</v>
+      </c>
+      <c r="EC22">
+        <v>58</v>
+      </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -5602,8 +6128,47 @@
       <c r="DP23">
         <v>81</v>
       </c>
+      <c r="DQ23">
+        <v>231</v>
+      </c>
+      <c r="DR23">
+        <v>162</v>
+      </c>
+      <c r="DS23">
+        <v>176</v>
+      </c>
+      <c r="DT23">
+        <v>235</v>
+      </c>
+      <c r="DU23">
+        <v>288</v>
+      </c>
+      <c r="DV23">
+        <v>188</v>
+      </c>
+      <c r="DW23">
+        <v>272</v>
+      </c>
+      <c r="DX23">
+        <v>749</v>
+      </c>
+      <c r="DY23">
+        <v>257</v>
+      </c>
+      <c r="DZ23">
+        <v>152</v>
+      </c>
+      <c r="EA23">
+        <v>302</v>
+      </c>
+      <c r="EB23">
+        <v>221</v>
+      </c>
+      <c r="EC23">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -5964,8 +6529,47 @@
       <c r="DP24">
         <v>88</v>
       </c>
+      <c r="DQ24">
+        <v>328</v>
+      </c>
+      <c r="DR24">
+        <v>142</v>
+      </c>
+      <c r="DS24">
+        <v>177</v>
+      </c>
+      <c r="DT24">
+        <v>139</v>
+      </c>
+      <c r="DU24">
+        <v>231</v>
+      </c>
+      <c r="DV24">
+        <v>155</v>
+      </c>
+      <c r="DW24">
+        <v>157</v>
+      </c>
+      <c r="DX24">
+        <v>655</v>
+      </c>
+      <c r="DY24">
+        <v>272</v>
+      </c>
+      <c r="DZ24">
+        <v>139</v>
+      </c>
+      <c r="EA24">
+        <v>272</v>
+      </c>
+      <c r="EB24">
+        <v>149</v>
+      </c>
+      <c r="EC24">
+        <v>40</v>
+      </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -6326,8 +6930,47 @@
       <c r="DP25">
         <v>84</v>
       </c>
+      <c r="DQ25">
+        <v>240</v>
+      </c>
+      <c r="DR25">
+        <v>155</v>
+      </c>
+      <c r="DS25">
+        <v>123</v>
+      </c>
+      <c r="DT25">
+        <v>175</v>
+      </c>
+      <c r="DU25">
+        <v>244</v>
+      </c>
+      <c r="DV25">
+        <v>127</v>
+      </c>
+      <c r="DW25">
+        <v>168</v>
+      </c>
+      <c r="DX25">
+        <v>475</v>
+      </c>
+      <c r="DY25">
+        <v>238</v>
+      </c>
+      <c r="DZ25">
+        <v>138</v>
+      </c>
+      <c r="EA25">
+        <v>255</v>
+      </c>
+      <c r="EB25">
+        <v>143</v>
+      </c>
+      <c r="EC25">
+        <v>15</v>
+      </c>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -6687,6 +7330,45 @@
       </c>
       <c r="DP26">
         <v>14</v>
+      </c>
+      <c r="DQ26">
+        <v>39</v>
+      </c>
+      <c r="DR26">
+        <v>30</v>
+      </c>
+      <c r="DS26">
+        <v>32</v>
+      </c>
+      <c r="DT26">
+        <v>37</v>
+      </c>
+      <c r="DU26">
+        <v>34</v>
+      </c>
+      <c r="DV26">
+        <v>25</v>
+      </c>
+      <c r="DW26">
+        <v>53</v>
+      </c>
+      <c r="DX26">
+        <v>152</v>
+      </c>
+      <c r="DY26">
+        <v>64</v>
+      </c>
+      <c r="DZ26">
+        <v>22</v>
+      </c>
+      <c r="EA26">
+        <v>73</v>
+      </c>
+      <c r="EB26">
+        <v>42</v>
+      </c>
+      <c r="EC26">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_queries_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858FDAD-9A0E-415D-919E-CA2009298D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E668001-94D9-40AB-B413-48152A36320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -488,9 +488,6 @@
     <t>2024-12-23 03:00:00.0</t>
   </si>
   <si>
-    <t>2024-12-30 03:00:00.0</t>
-  </si>
-  <si>
     <t>2025-01-06 03:00:00.0</t>
   </si>
   <si>
@@ -528,9 +525,6 @@
   </si>
   <si>
     <t>2025-03-31 03:00:00.0</t>
-  </si>
-  <si>
-    <t>population</t>
   </si>
 </sst>
 </file>
@@ -872,15 +866,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ED26"/>
+  <dimension ref="A1:EB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="EA17" sqref="EA17"/>
+    <sheetView tabSelected="1" topLeftCell="DJ3" workbookViewId="0">
+      <selection activeCell="EC3" sqref="EC1:EC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -896,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -904,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -912,7 +906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -920,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -928,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -936,7 +930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -944,7 +938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -952,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1349,14 +1343,8 @@
       <c r="EB11" t="s">
         <v>163</v>
       </c>
-      <c r="EC11" t="s">
-        <v>164</v>
-      </c>
-      <c r="ED11" t="s">
-        <v>165</v>
-      </c>
     </row>
-    <row r="12" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1715,49 +1703,46 @@
         <v>36157</v>
       </c>
       <c r="DP12">
-        <v>16354</v>
+        <v>46518</v>
       </c>
       <c r="DQ12">
-        <v>46518</v>
+        <v>26012</v>
       </c>
       <c r="DR12">
-        <v>26012</v>
+        <v>28134</v>
       </c>
       <c r="DS12">
-        <v>28134</v>
+        <v>29947</v>
       </c>
       <c r="DT12">
-        <v>29947</v>
+        <v>43393</v>
       </c>
       <c r="DU12">
-        <v>43393</v>
+        <v>30692</v>
       </c>
       <c r="DV12">
-        <v>30692</v>
+        <v>37158</v>
       </c>
       <c r="DW12">
-        <v>37158</v>
+        <v>101966</v>
       </c>
       <c r="DX12">
-        <v>101966</v>
+        <v>46976</v>
       </c>
       <c r="DY12">
-        <v>46976</v>
+        <v>24409</v>
       </c>
       <c r="DZ12">
-        <v>24409</v>
+        <v>45258</v>
       </c>
       <c r="EA12">
-        <v>45258</v>
+        <v>27186</v>
       </c>
       <c r="EB12">
-        <v>27186</v>
-      </c>
-      <c r="EC12">
         <v>3889</v>
       </c>
     </row>
-    <row r="13" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2116,49 +2101,46 @@
         <v>3544</v>
       </c>
       <c r="DP13">
-        <v>1649</v>
+        <v>3892</v>
       </c>
       <c r="DQ13">
-        <v>3892</v>
+        <v>2299</v>
       </c>
       <c r="DR13">
-        <v>2299</v>
+        <v>2662</v>
       </c>
       <c r="DS13">
-        <v>2662</v>
+        <v>2779</v>
       </c>
       <c r="DT13">
-        <v>2779</v>
+        <v>3999</v>
       </c>
       <c r="DU13">
-        <v>3999</v>
+        <v>2701</v>
       </c>
       <c r="DV13">
-        <v>2701</v>
+        <v>3461</v>
       </c>
       <c r="DW13">
-        <v>3461</v>
+        <v>9753</v>
       </c>
       <c r="DX13">
-        <v>9753</v>
+        <v>4434</v>
       </c>
       <c r="DY13">
-        <v>4434</v>
+        <v>2217</v>
       </c>
       <c r="DZ13">
-        <v>2217</v>
+        <v>4303</v>
       </c>
       <c r="EA13">
-        <v>4303</v>
+        <v>2507</v>
       </c>
       <c r="EB13">
-        <v>2507</v>
-      </c>
-      <c r="EC13">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2517,49 +2499,46 @@
         <v>2004</v>
       </c>
       <c r="DP14">
-        <v>863</v>
+        <v>2305</v>
       </c>
       <c r="DQ14">
-        <v>2305</v>
+        <v>1204</v>
       </c>
       <c r="DR14">
-        <v>1204</v>
+        <v>1330</v>
       </c>
       <c r="DS14">
-        <v>1330</v>
+        <v>1553</v>
       </c>
       <c r="DT14">
-        <v>1553</v>
+        <v>2258</v>
       </c>
       <c r="DU14">
-        <v>2258</v>
+        <v>1643</v>
       </c>
       <c r="DV14">
-        <v>1643</v>
+        <v>1973</v>
       </c>
       <c r="DW14">
-        <v>1973</v>
+        <v>5786</v>
       </c>
       <c r="DX14">
-        <v>5786</v>
+        <v>2460</v>
       </c>
       <c r="DY14">
-        <v>2460</v>
+        <v>1280</v>
       </c>
       <c r="DZ14">
-        <v>1280</v>
+        <v>2385</v>
       </c>
       <c r="EA14">
-        <v>2385</v>
+        <v>1398</v>
       </c>
       <c r="EB14">
-        <v>1398</v>
-      </c>
-      <c r="EC14">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2918,49 +2897,46 @@
         <v>1103</v>
       </c>
       <c r="DP15">
-        <v>468</v>
+        <v>730</v>
       </c>
       <c r="DQ15">
-        <v>730</v>
+        <v>485</v>
       </c>
       <c r="DR15">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="DS15">
-        <v>509</v>
+        <v>575</v>
       </c>
       <c r="DT15">
-        <v>575</v>
+        <v>817</v>
       </c>
       <c r="DU15">
-        <v>817</v>
+        <v>598</v>
       </c>
       <c r="DV15">
-        <v>598</v>
+        <v>789</v>
       </c>
       <c r="DW15">
-        <v>789</v>
+        <v>1877</v>
       </c>
       <c r="DX15">
-        <v>1877</v>
+        <v>865</v>
       </c>
       <c r="DY15">
-        <v>865</v>
+        <v>464</v>
       </c>
       <c r="DZ15">
-        <v>464</v>
+        <v>928</v>
       </c>
       <c r="EA15">
-        <v>928</v>
+        <v>449</v>
       </c>
       <c r="EB15">
-        <v>449</v>
-      </c>
-      <c r="EC15">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:134" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3319,49 +3295,46 @@
         <v>751</v>
       </c>
       <c r="DP16">
-        <v>358</v>
+        <v>1207</v>
       </c>
       <c r="DQ16">
-        <v>1207</v>
+        <v>565</v>
       </c>
       <c r="DR16">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="DS16">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="DT16">
-        <v>669</v>
+        <v>1017</v>
       </c>
       <c r="DU16">
-        <v>1017</v>
+        <v>667</v>
       </c>
       <c r="DV16">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="DW16">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="DX16">
-        <v>2300</v>
+        <v>976</v>
       </c>
       <c r="DY16">
-        <v>976</v>
+        <v>540</v>
       </c>
       <c r="DZ16">
-        <v>540</v>
+        <v>877</v>
       </c>
       <c r="EA16">
-        <v>877</v>
+        <v>642</v>
       </c>
       <c r="EB16">
-        <v>642</v>
-      </c>
-      <c r="EC16">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3720,49 +3693,46 @@
         <v>751</v>
       </c>
       <c r="DP17">
-        <v>297</v>
+        <v>1139</v>
       </c>
       <c r="DQ17">
-        <v>1139</v>
+        <v>678</v>
       </c>
       <c r="DR17">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="DS17">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="DT17">
-        <v>669</v>
+        <v>1165</v>
       </c>
       <c r="DU17">
-        <v>1165</v>
+        <v>756</v>
       </c>
       <c r="DV17">
-        <v>756</v>
+        <v>858</v>
       </c>
       <c r="DW17">
-        <v>858</v>
+        <v>2715</v>
       </c>
       <c r="DX17">
-        <v>2715</v>
+        <v>1125</v>
       </c>
       <c r="DY17">
-        <v>1125</v>
+        <v>590</v>
       </c>
       <c r="DZ17">
-        <v>590</v>
+        <v>1129</v>
       </c>
       <c r="EA17">
-        <v>1129</v>
+        <v>629</v>
       </c>
       <c r="EB17">
-        <v>629</v>
-      </c>
-      <c r="EC17">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -4121,49 +4091,46 @@
         <v>857</v>
       </c>
       <c r="DP18">
-        <v>411</v>
+        <v>824</v>
       </c>
       <c r="DQ18">
-        <v>824</v>
+        <v>546</v>
       </c>
       <c r="DR18">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="DS18">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="DT18">
-        <v>550</v>
+        <v>807</v>
       </c>
       <c r="DU18">
-        <v>807</v>
+        <v>614</v>
       </c>
       <c r="DV18">
-        <v>614</v>
+        <v>730</v>
       </c>
       <c r="DW18">
-        <v>730</v>
+        <v>1880</v>
       </c>
       <c r="DX18">
-        <v>1880</v>
+        <v>933</v>
       </c>
       <c r="DY18">
-        <v>933</v>
+        <v>503</v>
       </c>
       <c r="DZ18">
-        <v>503</v>
+        <v>938</v>
       </c>
       <c r="EA18">
-        <v>938</v>
+        <v>671</v>
       </c>
       <c r="EB18">
-        <v>671</v>
-      </c>
-      <c r="EC18">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -4522,49 +4489,46 @@
         <v>866</v>
       </c>
       <c r="DP19">
-        <v>399</v>
+        <v>1103</v>
       </c>
       <c r="DQ19">
-        <v>1103</v>
+        <v>857</v>
       </c>
       <c r="DR19">
-        <v>857</v>
+        <v>735</v>
       </c>
       <c r="DS19">
-        <v>735</v>
+        <v>844</v>
       </c>
       <c r="DT19">
-        <v>844</v>
+        <v>1107</v>
       </c>
       <c r="DU19">
-        <v>1107</v>
+        <v>923</v>
       </c>
       <c r="DV19">
-        <v>923</v>
+        <v>1122</v>
       </c>
       <c r="DW19">
-        <v>1122</v>
+        <v>2840</v>
       </c>
       <c r="DX19">
-        <v>2840</v>
+        <v>1399</v>
       </c>
       <c r="DY19">
-        <v>1399</v>
+        <v>622</v>
       </c>
       <c r="DZ19">
-        <v>622</v>
+        <v>1281</v>
       </c>
       <c r="EA19">
-        <v>1281</v>
+        <v>768</v>
       </c>
       <c r="EB19">
-        <v>768</v>
-      </c>
-      <c r="EC19">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4923,49 +4887,46 @@
         <v>614</v>
       </c>
       <c r="DP20">
-        <v>200</v>
+        <v>678</v>
       </c>
       <c r="DQ20">
-        <v>678</v>
+        <v>426</v>
       </c>
       <c r="DR20">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="DS20">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="DT20">
-        <v>526</v>
+        <v>796</v>
       </c>
       <c r="DU20">
-        <v>796</v>
+        <v>511</v>
       </c>
       <c r="DV20">
-        <v>511</v>
+        <v>624</v>
       </c>
       <c r="DW20">
-        <v>624</v>
+        <v>2216</v>
       </c>
       <c r="DX20">
-        <v>2216</v>
+        <v>823</v>
       </c>
       <c r="DY20">
-        <v>823</v>
+        <v>457</v>
       </c>
       <c r="DZ20">
-        <v>457</v>
+        <v>837</v>
       </c>
       <c r="EA20">
-        <v>837</v>
+        <v>560</v>
       </c>
       <c r="EB20">
-        <v>560</v>
-      </c>
-      <c r="EC20">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -5324,49 +5285,46 @@
         <v>335</v>
       </c>
       <c r="DP21">
-        <v>150</v>
+        <v>573</v>
       </c>
       <c r="DQ21">
-        <v>573</v>
+        <v>233</v>
       </c>
       <c r="DR21">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="DS21">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="DT21">
-        <v>263</v>
+        <v>558</v>
       </c>
       <c r="DU21">
-        <v>558</v>
+        <v>311</v>
       </c>
       <c r="DV21">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="DW21">
-        <v>363</v>
+        <v>1657</v>
       </c>
       <c r="DX21">
-        <v>1657</v>
+        <v>511</v>
       </c>
       <c r="DY21">
+        <v>232</v>
+      </c>
+      <c r="DZ21">
         <v>511</v>
       </c>
-      <c r="DZ21">
-        <v>232</v>
-      </c>
       <c r="EA21">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="EB21">
-        <v>289</v>
-      </c>
-      <c r="EC21">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -5725,49 +5683,46 @@
         <v>435</v>
       </c>
       <c r="DP22">
-        <v>207</v>
+        <v>427</v>
       </c>
       <c r="DQ22">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="DR22">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DS22">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="DT22">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="DU22">
-        <v>529</v>
+        <v>381</v>
       </c>
       <c r="DV22">
-        <v>381</v>
+        <v>458</v>
       </c>
       <c r="DW22">
-        <v>458</v>
+        <v>1178</v>
       </c>
       <c r="DX22">
-        <v>1178</v>
+        <v>470</v>
       </c>
       <c r="DY22">
-        <v>470</v>
+        <v>311</v>
       </c>
       <c r="DZ22">
-        <v>311</v>
+        <v>624</v>
       </c>
       <c r="EA22">
-        <v>624</v>
+        <v>364</v>
       </c>
       <c r="EB22">
-        <v>364</v>
-      </c>
-      <c r="EC22">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -6126,49 +6081,46 @@
         <v>191</v>
       </c>
       <c r="DP23">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="DQ23">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="DR23">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="DS23">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="DT23">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="DU23">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c r="DV23">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="DW23">
-        <v>272</v>
+        <v>749</v>
       </c>
       <c r="DX23">
-        <v>749</v>
+        <v>257</v>
       </c>
       <c r="DY23">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="DZ23">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="EA23">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="EB23">
-        <v>221</v>
-      </c>
-      <c r="EC23">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -6527,49 +6479,46 @@
         <v>284</v>
       </c>
       <c r="DP24">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="DQ24">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="DR24">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="DS24">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="DT24">
+        <v>231</v>
+      </c>
+      <c r="DU24">
+        <v>155</v>
+      </c>
+      <c r="DV24">
+        <v>157</v>
+      </c>
+      <c r="DW24">
+        <v>655</v>
+      </c>
+      <c r="DX24">
+        <v>272</v>
+      </c>
+      <c r="DY24">
         <v>139</v>
       </c>
-      <c r="DU24">
-        <v>231</v>
-      </c>
-      <c r="DV24">
-        <v>155</v>
-      </c>
-      <c r="DW24">
-        <v>157</v>
-      </c>
-      <c r="DX24">
-        <v>655</v>
-      </c>
-      <c r="DY24">
+      <c r="DZ24">
         <v>272</v>
       </c>
-      <c r="DZ24">
-        <v>139</v>
-      </c>
       <c r="EA24">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="EB24">
-        <v>149</v>
-      </c>
-      <c r="EC24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -6928,49 +6877,46 @@
         <v>191</v>
       </c>
       <c r="DP25">
-        <v>84</v>
+        <v>240</v>
       </c>
       <c r="DQ25">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="DR25">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="DS25">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="DT25">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="DU25">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="DV25">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="DW25">
-        <v>168</v>
+        <v>475</v>
       </c>
       <c r="DX25">
-        <v>475</v>
+        <v>238</v>
       </c>
       <c r="DY25">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="DZ25">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="EA25">
-        <v>255</v>
+        <v>143</v>
       </c>
       <c r="EB25">
-        <v>143</v>
-      </c>
-      <c r="EC25">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -7329,45 +7275,42 @@
         <v>55</v>
       </c>
       <c r="DP26">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="DQ26">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="DR26">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="DS26">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="DT26">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="DU26">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="DV26">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="DW26">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="DX26">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="DY26">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="DZ26">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="EA26">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="EB26">
-        <v>42</v>
-      </c>
-      <c r="EC26">
         <v>4</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/chile_regiones_queries_.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/tasa xenofobia regiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E668001-94D9-40AB-B413-48152A36320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EC45D5-0ED0-524E-B68A-D4BA5B30ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21720" yWindow="4960" windowWidth="23280" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -525,6 +528,42 @@
   </si>
   <si>
     <t>2025-03-31 03:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-07 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-14 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-21 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-28 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-12 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-19 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-26 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-02 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-09 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-16 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-23 04:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-30 04:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -577,6 +616,383 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Chart Data Export</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Dimension 1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Dimension 2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Aggregate</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Start Date</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>End Date</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Project Id</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Query Id</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>weeks</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>2025-04-07 04:00:00.0</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>2025-04-14 04:00:00.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>2025-04-21 04:00:00.0</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>2025-04-28 04:00:00.0</v>
+          </cell>
+          <cell r="O10" t="str">
+            <v>2025-06-30 04:00:00.0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Región Metropolitana de Santiago, Chile</v>
+          </cell>
+          <cell r="C11">
+            <v>40299</v>
+          </cell>
+          <cell r="D11">
+            <v>42671</v>
+          </cell>
+          <cell r="E11">
+            <v>29039</v>
+          </cell>
+          <cell r="F11">
+            <v>25892</v>
+          </cell>
+          <cell r="O11">
+            <v>5314</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Valparaíso, Chile</v>
+          </cell>
+          <cell r="C12">
+            <v>3927</v>
+          </cell>
+          <cell r="D12">
+            <v>4236</v>
+          </cell>
+          <cell r="E12">
+            <v>2773</v>
+          </cell>
+          <cell r="F12">
+            <v>2536</v>
+          </cell>
+          <cell r="O12">
+            <v>529</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Bío-Bío, Chile</v>
+          </cell>
+          <cell r="C13">
+            <v>2184</v>
+          </cell>
+          <cell r="D13">
+            <v>2282</v>
+          </cell>
+          <cell r="E13">
+            <v>1581</v>
+          </cell>
+          <cell r="F13">
+            <v>1326</v>
+          </cell>
+          <cell r="O13">
+            <v>301</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Antofagasta, Chile</v>
+          </cell>
+          <cell r="C14">
+            <v>892</v>
+          </cell>
+          <cell r="D14">
+            <v>1356</v>
+          </cell>
+          <cell r="E14">
+            <v>792</v>
+          </cell>
+          <cell r="F14">
+            <v>602</v>
+          </cell>
+          <cell r="O14">
+            <v>138</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Coquimbo, Chile</v>
+          </cell>
+          <cell r="C15">
+            <v>936</v>
+          </cell>
+          <cell r="D15">
+            <v>1017</v>
+          </cell>
+          <cell r="E15">
+            <v>703</v>
+          </cell>
+          <cell r="F15">
+            <v>580</v>
+          </cell>
+          <cell r="O15">
+            <v>118</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Los Lagos, Chile</v>
+          </cell>
+          <cell r="C16">
+            <v>979</v>
+          </cell>
+          <cell r="D16">
+            <v>1157</v>
+          </cell>
+          <cell r="E16">
+            <v>785</v>
+          </cell>
+          <cell r="F16">
+            <v>579</v>
+          </cell>
+          <cell r="O16">
+            <v>122</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Tarapacá, Chile</v>
+          </cell>
+          <cell r="C17">
+            <v>843</v>
+          </cell>
+          <cell r="D17">
+            <v>1063</v>
+          </cell>
+          <cell r="E17">
+            <v>661</v>
+          </cell>
+          <cell r="F17">
+            <v>702</v>
+          </cell>
+          <cell r="O17">
+            <v>102</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Maule, Chile</v>
+          </cell>
+          <cell r="C18">
+            <v>815</v>
+          </cell>
+          <cell r="D18">
+            <v>732</v>
+          </cell>
+          <cell r="E18">
+            <v>531</v>
+          </cell>
+          <cell r="F18">
+            <v>426</v>
+          </cell>
+          <cell r="O18">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>La Araucanía, Chile</v>
+          </cell>
+          <cell r="C19">
+            <v>733</v>
+          </cell>
+          <cell r="D19">
+            <v>832</v>
+          </cell>
+          <cell r="E19">
+            <v>522</v>
+          </cell>
+          <cell r="F19">
+            <v>419</v>
+          </cell>
+          <cell r="O19">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Los Ríos, Chile</v>
+          </cell>
+          <cell r="C20">
+            <v>612</v>
+          </cell>
+          <cell r="D20">
+            <v>636</v>
+          </cell>
+          <cell r="E20">
+            <v>369</v>
+          </cell>
+          <cell r="F20">
+            <v>340</v>
+          </cell>
+          <cell r="O20">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Atacama, Chile</v>
+          </cell>
+          <cell r="C21">
+            <v>290</v>
+          </cell>
+          <cell r="D21">
+            <v>286</v>
+          </cell>
+          <cell r="E21">
+            <v>183</v>
+          </cell>
+          <cell r="F21">
+            <v>108</v>
+          </cell>
+          <cell r="O21">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Libertador General Bernardo O'Higgins, Chile</v>
+          </cell>
+          <cell r="C22">
+            <v>339</v>
+          </cell>
+          <cell r="D22">
+            <v>345</v>
+          </cell>
+          <cell r="E22">
+            <v>279</v>
+          </cell>
+          <cell r="F22">
+            <v>255</v>
+          </cell>
+          <cell r="O22">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Magallanes y Antártica Chilena, Chile</v>
+          </cell>
+          <cell r="C23">
+            <v>214</v>
+          </cell>
+          <cell r="D23">
+            <v>249</v>
+          </cell>
+          <cell r="E23">
+            <v>186</v>
+          </cell>
+          <cell r="F23">
+            <v>141</v>
+          </cell>
+          <cell r="O23">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Arica y Parinacota, Chile</v>
+          </cell>
+          <cell r="C24">
+            <v>157</v>
+          </cell>
+          <cell r="D24">
+            <v>136</v>
+          </cell>
+          <cell r="E24">
+            <v>140</v>
+          </cell>
+          <cell r="F24">
+            <v>116</v>
+          </cell>
+          <cell r="O24">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Aisén del General Carlos Ibáñez del Campo, Chile</v>
+          </cell>
+          <cell r="C25">
+            <v>36</v>
+          </cell>
+          <cell r="D25">
+            <v>52</v>
+          </cell>
+          <cell r="E25">
+            <v>46</v>
+          </cell>
+          <cell r="F25">
+            <v>40</v>
+          </cell>
+          <cell r="O25">
+            <v>7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,15 +1282,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EB26"/>
+  <dimension ref="A1:EO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DJ3" workbookViewId="0">
-      <selection activeCell="EC3" sqref="EC1:EC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="DV3" workbookViewId="0">
+      <selection activeCell="EE11" sqref="EE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -890,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -898,7 +1314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -906,7 +1322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -914,7 +1330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -922,7 +1338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -930,7 +1346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -938,7 +1354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -946,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1759,47 @@
       <c r="EB11" t="s">
         <v>163</v>
       </c>
+      <c r="EC11" t="s">
+        <v>164</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>165</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>166</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>167</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>168</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>169</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>170</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>171</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>172</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>173</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>174</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>175</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>175</v>
+      </c>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1741,8 +2196,52 @@
       <c r="EB12">
         <v>3889</v>
       </c>
+      <c r="EC12">
+        <f>_xlfn.XLOOKUP($A12,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>40299</v>
+      </c>
+      <c r="ED12">
+        <f>_xlfn.XLOOKUP($A12,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>42671</v>
+      </c>
+      <c r="EE12">
+        <f>_xlfn.XLOOKUP($A12,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>29039</v>
+      </c>
+      <c r="EF12">
+        <f>_xlfn.XLOOKUP($A12,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>25892</v>
+      </c>
+      <c r="EG12">
+        <v>23118</v>
+      </c>
+      <c r="EH12">
+        <v>19083</v>
+      </c>
+      <c r="EI12">
+        <v>36142</v>
+      </c>
+      <c r="EJ12">
+        <v>24944</v>
+      </c>
+      <c r="EK12">
+        <v>28500</v>
+      </c>
+      <c r="EL12">
+        <v>27365</v>
+      </c>
+      <c r="EM12">
+        <v>21112</v>
+      </c>
+      <c r="EN12">
+        <v>5314</v>
+      </c>
+      <c r="EO12">
+        <f>_xlfn.XLOOKUP($A12,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>5314</v>
+      </c>
     </row>
-    <row r="13" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2139,8 +2638,52 @@
       <c r="EB13">
         <v>337</v>
       </c>
+      <c r="EC13">
+        <f>_xlfn.XLOOKUP($A13,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>3927</v>
+      </c>
+      <c r="ED13">
+        <f>_xlfn.XLOOKUP($A13,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>4236</v>
+      </c>
+      <c r="EE13">
+        <f>_xlfn.XLOOKUP($A13,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>2773</v>
+      </c>
+      <c r="EF13">
+        <f>_xlfn.XLOOKUP($A13,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>2536</v>
+      </c>
+      <c r="EG13">
+        <v>2408</v>
+      </c>
+      <c r="EH13">
+        <v>1911</v>
+      </c>
+      <c r="EI13">
+        <v>3864</v>
+      </c>
+      <c r="EJ13">
+        <v>2602</v>
+      </c>
+      <c r="EK13">
+        <v>2998</v>
+      </c>
+      <c r="EL13">
+        <v>2725</v>
+      </c>
+      <c r="EM13">
+        <v>2053</v>
+      </c>
+      <c r="EN13">
+        <v>529</v>
+      </c>
+      <c r="EO13">
+        <f>_xlfn.XLOOKUP($A13,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>529</v>
+      </c>
     </row>
-    <row r="14" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -2537,8 +3080,52 @@
       <c r="EB14">
         <v>193</v>
       </c>
+      <c r="EC14">
+        <f>_xlfn.XLOOKUP($A14,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>2184</v>
+      </c>
+      <c r="ED14">
+        <f>_xlfn.XLOOKUP($A14,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>2282</v>
+      </c>
+      <c r="EE14">
+        <f>_xlfn.XLOOKUP($A14,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>1581</v>
+      </c>
+      <c r="EF14">
+        <f>_xlfn.XLOOKUP($A14,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>1326</v>
+      </c>
+      <c r="EG14">
+        <v>1175</v>
+      </c>
+      <c r="EH14">
+        <v>858</v>
+      </c>
+      <c r="EI14">
+        <v>1929</v>
+      </c>
+      <c r="EJ14">
+        <v>1384</v>
+      </c>
+      <c r="EK14">
+        <v>1707</v>
+      </c>
+      <c r="EL14">
+        <v>1572</v>
+      </c>
+      <c r="EM14">
+        <v>1225</v>
+      </c>
+      <c r="EN14">
+        <v>301</v>
+      </c>
+      <c r="EO14">
+        <f>_xlfn.XLOOKUP($A14,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>301</v>
+      </c>
     </row>
-    <row r="15" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -2935,8 +3522,52 @@
       <c r="EB15">
         <v>73</v>
       </c>
+      <c r="EC15">
+        <f>_xlfn.XLOOKUP($A15,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>733</v>
+      </c>
+      <c r="ED15">
+        <f>_xlfn.XLOOKUP($A15,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>832</v>
+      </c>
+      <c r="EE15">
+        <f>_xlfn.XLOOKUP($A15,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>522</v>
+      </c>
+      <c r="EF15">
+        <f>_xlfn.XLOOKUP($A15,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>419</v>
+      </c>
+      <c r="EG15">
+        <v>486</v>
+      </c>
+      <c r="EH15">
+        <v>406</v>
+      </c>
+      <c r="EI15">
+        <v>843</v>
+      </c>
+      <c r="EJ15">
+        <v>527</v>
+      </c>
+      <c r="EK15">
+        <v>500</v>
+      </c>
+      <c r="EL15">
+        <v>522</v>
+      </c>
+      <c r="EM15">
+        <v>456</v>
+      </c>
+      <c r="EN15">
+        <v>101</v>
+      </c>
+      <c r="EO15">
+        <f>_xlfn.XLOOKUP($A15,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>101</v>
+      </c>
     </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3333,8 +3964,52 @@
       <c r="EB16">
         <v>97</v>
       </c>
+      <c r="EC16">
+        <f>_xlfn.XLOOKUP($A16,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>979</v>
+      </c>
+      <c r="ED16">
+        <f>_xlfn.XLOOKUP($A16,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>1157</v>
+      </c>
+      <c r="EE16">
+        <f>_xlfn.XLOOKUP($A16,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>785</v>
+      </c>
+      <c r="EF16">
+        <f>_xlfn.XLOOKUP($A16,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>579</v>
+      </c>
+      <c r="EG16">
+        <v>570</v>
+      </c>
+      <c r="EH16">
+        <v>457</v>
+      </c>
+      <c r="EI16">
+        <v>955</v>
+      </c>
+      <c r="EJ16">
+        <v>681</v>
+      </c>
+      <c r="EK16">
+        <v>725</v>
+      </c>
+      <c r="EL16">
+        <v>609</v>
+      </c>
+      <c r="EM16">
+        <v>463</v>
+      </c>
+      <c r="EN16">
+        <v>122</v>
+      </c>
+      <c r="EO16">
+        <f>_xlfn.XLOOKUP($A16,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>122</v>
+      </c>
     </row>
-    <row r="17" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3731,8 +4406,52 @@
       <c r="EB17">
         <v>80</v>
       </c>
+      <c r="EC17">
+        <f>_xlfn.XLOOKUP($A17,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>936</v>
+      </c>
+      <c r="ED17">
+        <f>_xlfn.XLOOKUP($A17,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>1017</v>
+      </c>
+      <c r="EE17">
+        <f>_xlfn.XLOOKUP($A17,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>703</v>
+      </c>
+      <c r="EF17">
+        <f>_xlfn.XLOOKUP($A17,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>580</v>
+      </c>
+      <c r="EG17">
+        <v>581</v>
+      </c>
+      <c r="EH17">
+        <v>452</v>
+      </c>
+      <c r="EI17">
+        <v>820</v>
+      </c>
+      <c r="EJ17">
+        <v>595</v>
+      </c>
+      <c r="EK17">
+        <v>682</v>
+      </c>
+      <c r="EL17">
+        <v>634</v>
+      </c>
+      <c r="EM17">
+        <v>449</v>
+      </c>
+      <c r="EN17">
+        <v>118</v>
+      </c>
+      <c r="EO17">
+        <f>_xlfn.XLOOKUP($A17,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>118</v>
+      </c>
     </row>
-    <row r="18" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -4129,8 +4848,52 @@
       <c r="EB18">
         <v>89</v>
       </c>
+      <c r="EC18">
+        <f>_xlfn.XLOOKUP($A18,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>843</v>
+      </c>
+      <c r="ED18">
+        <f>_xlfn.XLOOKUP($A18,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>1063</v>
+      </c>
+      <c r="EE18">
+        <f>_xlfn.XLOOKUP($A18,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>661</v>
+      </c>
+      <c r="EF18">
+        <f>_xlfn.XLOOKUP($A18,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>702</v>
+      </c>
+      <c r="EG18">
+        <v>594</v>
+      </c>
+      <c r="EH18">
+        <v>418</v>
+      </c>
+      <c r="EI18">
+        <v>738</v>
+      </c>
+      <c r="EJ18">
+        <v>592</v>
+      </c>
+      <c r="EK18">
+        <v>741</v>
+      </c>
+      <c r="EL18">
+        <v>594</v>
+      </c>
+      <c r="EM18">
+        <v>554</v>
+      </c>
+      <c r="EN18">
+        <v>102</v>
+      </c>
+      <c r="EO18">
+        <f>_xlfn.XLOOKUP($A18,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -4527,8 +5290,52 @@
       <c r="EB19">
         <v>103</v>
       </c>
+      <c r="EC19">
+        <f>_xlfn.XLOOKUP($A19,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>892</v>
+      </c>
+      <c r="ED19">
+        <f>_xlfn.XLOOKUP($A19,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>1356</v>
+      </c>
+      <c r="EE19">
+        <f>_xlfn.XLOOKUP($A19,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>792</v>
+      </c>
+      <c r="EF19">
+        <f>_xlfn.XLOOKUP($A19,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>602</v>
+      </c>
+      <c r="EG19">
+        <v>595</v>
+      </c>
+      <c r="EH19">
+        <v>532</v>
+      </c>
+      <c r="EI19">
+        <v>836</v>
+      </c>
+      <c r="EJ19">
+        <v>772</v>
+      </c>
+      <c r="EK19">
+        <v>867</v>
+      </c>
+      <c r="EL19">
+        <v>942</v>
+      </c>
+      <c r="EM19">
+        <v>600</v>
+      </c>
+      <c r="EN19">
+        <v>138</v>
+      </c>
+      <c r="EO19">
+        <f>_xlfn.XLOOKUP($A19,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>138</v>
+      </c>
     </row>
-    <row r="20" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4925,8 +5732,52 @@
       <c r="EB20">
         <v>102</v>
       </c>
+      <c r="EC20">
+        <f>_xlfn.XLOOKUP($A20,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>815</v>
+      </c>
+      <c r="ED20">
+        <f>_xlfn.XLOOKUP($A20,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>732</v>
+      </c>
+      <c r="EE20">
+        <f>_xlfn.XLOOKUP($A20,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>531</v>
+      </c>
+      <c r="EF20">
+        <f>_xlfn.XLOOKUP($A20,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>426</v>
+      </c>
+      <c r="EG20">
+        <v>405</v>
+      </c>
+      <c r="EH20">
+        <v>355</v>
+      </c>
+      <c r="EI20">
+        <v>675</v>
+      </c>
+      <c r="EJ20">
+        <v>432</v>
+      </c>
+      <c r="EK20">
+        <v>525</v>
+      </c>
+      <c r="EL20">
+        <v>431</v>
+      </c>
+      <c r="EM20">
+        <v>334</v>
+      </c>
+      <c r="EN20">
+        <v>95</v>
+      </c>
+      <c r="EO20">
+        <f>_xlfn.XLOOKUP($A20,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>95</v>
+      </c>
     </row>
-    <row r="21" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -5323,8 +6174,52 @@
       <c r="EB21">
         <v>39</v>
       </c>
+      <c r="EC21">
+        <f>_xlfn.XLOOKUP($A21,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>339</v>
+      </c>
+      <c r="ED21">
+        <f>_xlfn.XLOOKUP($A21,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>345</v>
+      </c>
+      <c r="EE21">
+        <f>_xlfn.XLOOKUP($A21,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>279</v>
+      </c>
+      <c r="EF21">
+        <f>_xlfn.XLOOKUP($A21,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>255</v>
+      </c>
+      <c r="EG21">
+        <v>290</v>
+      </c>
+      <c r="EH21">
+        <v>209</v>
+      </c>
+      <c r="EI21">
+        <v>353</v>
+      </c>
+      <c r="EJ21">
+        <v>232</v>
+      </c>
+      <c r="EK21">
+        <v>383</v>
+      </c>
+      <c r="EL21">
+        <v>376</v>
+      </c>
+      <c r="EM21">
+        <v>207</v>
+      </c>
+      <c r="EN21">
+        <v>90</v>
+      </c>
+      <c r="EO21">
+        <f>_xlfn.XLOOKUP($A21,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>90</v>
+      </c>
     </row>
-    <row r="22" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -5721,8 +6616,52 @@
       <c r="EB22">
         <v>58</v>
       </c>
+      <c r="EC22">
+        <f>_xlfn.XLOOKUP($A22,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>612</v>
+      </c>
+      <c r="ED22">
+        <f>_xlfn.XLOOKUP($A22,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>636</v>
+      </c>
+      <c r="EE22">
+        <f>_xlfn.XLOOKUP($A22,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>369</v>
+      </c>
+      <c r="EF22">
+        <f>_xlfn.XLOOKUP($A22,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>340</v>
+      </c>
+      <c r="EG22">
+        <v>367</v>
+      </c>
+      <c r="EH22">
+        <v>201</v>
+      </c>
+      <c r="EI22">
+        <v>439</v>
+      </c>
+      <c r="EJ22">
+        <v>343</v>
+      </c>
+      <c r="EK22">
+        <v>373</v>
+      </c>
+      <c r="EL22">
+        <v>357</v>
+      </c>
+      <c r="EM22">
+        <v>288</v>
+      </c>
+      <c r="EN22">
+        <v>75</v>
+      </c>
+      <c r="EO22">
+        <f>_xlfn.XLOOKUP($A22,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>75</v>
+      </c>
     </row>
-    <row r="23" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -6119,8 +7058,52 @@
       <c r="EB23">
         <v>36</v>
       </c>
+      <c r="EC23">
+        <f>_xlfn.XLOOKUP($A23,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>214</v>
+      </c>
+      <c r="ED23">
+        <f>_xlfn.XLOOKUP($A23,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>249</v>
+      </c>
+      <c r="EE23">
+        <f>_xlfn.XLOOKUP($A23,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>186</v>
+      </c>
+      <c r="EF23">
+        <f>_xlfn.XLOOKUP($A23,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>141</v>
+      </c>
+      <c r="EG23">
+        <v>156</v>
+      </c>
+      <c r="EH23">
+        <v>128</v>
+      </c>
+      <c r="EI23">
+        <v>325</v>
+      </c>
+      <c r="EJ23">
+        <v>233</v>
+      </c>
+      <c r="EK23">
+        <v>217</v>
+      </c>
+      <c r="EL23">
+        <v>179</v>
+      </c>
+      <c r="EM23">
+        <v>128</v>
+      </c>
+      <c r="EN23">
+        <v>51</v>
+      </c>
+      <c r="EO23">
+        <f>_xlfn.XLOOKUP($A23,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>51</v>
+      </c>
     </row>
-    <row r="24" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -6517,8 +7500,52 @@
       <c r="EB24">
         <v>40</v>
       </c>
+      <c r="EC24">
+        <f>_xlfn.XLOOKUP($A24,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>290</v>
+      </c>
+      <c r="ED24">
+        <f>_xlfn.XLOOKUP($A24,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>286</v>
+      </c>
+      <c r="EE24">
+        <f>_xlfn.XLOOKUP($A24,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>183</v>
+      </c>
+      <c r="EF24">
+        <f>_xlfn.XLOOKUP($A24,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>108</v>
+      </c>
+      <c r="EG24">
+        <v>128</v>
+      </c>
+      <c r="EH24">
+        <v>117</v>
+      </c>
+      <c r="EI24">
+        <v>241</v>
+      </c>
+      <c r="EJ24">
+        <v>125</v>
+      </c>
+      <c r="EK24">
+        <v>171</v>
+      </c>
+      <c r="EL24">
+        <v>125</v>
+      </c>
+      <c r="EM24">
+        <v>119</v>
+      </c>
+      <c r="EN24">
+        <v>28</v>
+      </c>
+      <c r="EO24">
+        <f>_xlfn.XLOOKUP($A24,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>28</v>
+      </c>
     </row>
-    <row r="25" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -6915,8 +7942,52 @@
       <c r="EB25">
         <v>15</v>
       </c>
+      <c r="EC25">
+        <f>_xlfn.XLOOKUP($A25,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>157</v>
+      </c>
+      <c r="ED25">
+        <f>_xlfn.XLOOKUP($A25,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>136</v>
+      </c>
+      <c r="EE25">
+        <f>_xlfn.XLOOKUP($A25,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>140</v>
+      </c>
+      <c r="EF25">
+        <f>_xlfn.XLOOKUP($A25,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>116</v>
+      </c>
+      <c r="EG25">
+        <v>128</v>
+      </c>
+      <c r="EH25">
+        <v>88</v>
+      </c>
+      <c r="EI25">
+        <v>152</v>
+      </c>
+      <c r="EJ25">
+        <v>107</v>
+      </c>
+      <c r="EK25">
+        <v>184</v>
+      </c>
+      <c r="EL25">
+        <v>169</v>
+      </c>
+      <c r="EM25">
+        <v>119</v>
+      </c>
+      <c r="EN25">
+        <v>17</v>
+      </c>
+      <c r="EO25">
+        <f>_xlfn.XLOOKUP($A25,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="26" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:145" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -7312,6 +8383,50 @@
       </c>
       <c r="EB26">
         <v>4</v>
+      </c>
+      <c r="EC26">
+        <f>_xlfn.XLOOKUP($A26,[1]Sheet1!$A:$A,[1]Sheet1!C:C,"err",0,1)</f>
+        <v>36</v>
+      </c>
+      <c r="ED26">
+        <f>_xlfn.XLOOKUP($A26,[1]Sheet1!$A:$A,[1]Sheet1!D:D,"err",0,1)</f>
+        <v>52</v>
+      </c>
+      <c r="EE26">
+        <f>_xlfn.XLOOKUP($A26,[1]Sheet1!$A:$A,[1]Sheet1!E:E,"err",0,1)</f>
+        <v>46</v>
+      </c>
+      <c r="EF26">
+        <f>_xlfn.XLOOKUP($A26,[1]Sheet1!$A:$A,[1]Sheet1!F:F,"err",0,1)</f>
+        <v>40</v>
+      </c>
+      <c r="EG26">
+        <v>44</v>
+      </c>
+      <c r="EH26">
+        <v>27</v>
+      </c>
+      <c r="EI26">
+        <v>51</v>
+      </c>
+      <c r="EJ26">
+        <v>21</v>
+      </c>
+      <c r="EK26">
+        <v>34</v>
+      </c>
+      <c r="EL26">
+        <v>46</v>
+      </c>
+      <c r="EM26">
+        <v>35</v>
+      </c>
+      <c r="EN26">
+        <v>7</v>
+      </c>
+      <c r="EO26">
+        <f>_xlfn.XLOOKUP($A26,[1]Sheet1!$A:$A,[1]Sheet1!O:O,"err",0,1)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
